--- a/数据整理/stocks/A股/深证主板/002466-天齐锂业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002466-天齐锂业.xlsx
@@ -451,1079 +451,1459 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001643</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7855</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>001644</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.06</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009691</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009692</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>006538</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>东海核心价值精选混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008180</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>同泰慧利混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008181</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>同泰慧利混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>166107</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166108</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>510081</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长盛动态精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富优势精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>540008</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇丰晋信低碳先锋股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>240004</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝动力组合混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001239</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长盛国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004917</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004918</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>290002</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰信先行策略混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001967</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华宝转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001707</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009481</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国泰宏益一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009482</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国泰宏益一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009691</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009692</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>83.91</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>49.70</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006323</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>006324</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1533,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,15 +1934,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>400015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>东方新能源汽车主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>62.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6982</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>64.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009691</t>
+          <t>005939</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
+          <t>工银瑞信新能源汽车主题混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>36.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009692</t>
+          <t>501203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
+          <t>易方达创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>519008</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>汇添富优势精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>30.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>005940</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>工银瑞信新能源汽车主题混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>17.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1388</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>26.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005634</t>
+          <t>000173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安行业龙头混合</t>
+          <t>汇添富美丽30混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>19.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000173</t>
+          <t>009566</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富美丽30混合</t>
+          <t>汇安泓阳三年持有期混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000175</t>
+          <t>001245</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富高息债债券C</t>
+          <t>工银瑞信生态环境行业股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005821</t>
+          <t>110001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
+          <t>易方达平稳增长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70.99</t>
+          <t>29.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>240004</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>华宝动力组合混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>519185</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>万家精选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>007689</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>国投瑞银新能源混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3860</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>001239</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>长盛国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>006533</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>易方达科融混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006270</t>
+          <t>005119</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇安核心成长混合A</t>
+          <t>银华智荟内在价值灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006271</t>
+          <t>000175</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇安核心成长混合C</t>
+          <t>汇添富高息债债券C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006323</t>
+          <t>501095</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合A</t>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006324</t>
+          <t>168601</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合C</t>
+          <t>汇安裕阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>001704</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>国投瑞银进宝灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>006736</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>国投瑞银先进制造混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>70.48</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006533</t>
+          <t>007690</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>易方达科融混合</t>
+          <t>国投瑞银新能源混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>400015</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方新能源汽车主题混合</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>010613</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>中融产业趋势一年定期开放混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>519191</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>万家新利灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007501</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>501095</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>75.64</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>005634</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>汇安行业龙头混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>501203</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>易方达创新未来18个月封闭运作混合A</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>009691</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>国泰浩益18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001245</t>
+          <t>519212</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>工银瑞信生态环境行业股票</t>
+          <t>万家宏观择时多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2648,15 +3418,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>91.77</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>8.64</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2666,25 +3446,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001267</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>泰达宏利蓝筹价值混合</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>006323</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>合煦智远嘉选混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>5</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>5</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>001518</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>万家瑞兴灵活配置混合</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>9</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>001267</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>泰达宏利蓝筹价值混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>5</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2806,25 +3636,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>001518</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>易方达平稳增长混合</t>
+          <t>万家瑞兴灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>60.25</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>519008</t>
+          <t>001537</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>汇添富优势精选混合</t>
+          <t>中加改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>9</v>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>005821</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>万家新机遇龙头企业灵活配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>6</v>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2890,25 +3750,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>519185</t>
+          <t>000423</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>万家精选混合</t>
+          <t>前海开源事件驱动混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>519191</t>
+          <t>006324</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>万家新利灵活配置混合</t>
+          <t>合煦智远嘉选混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>8</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>519212</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>10</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -2974,25 +3864,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>010614</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>中融产业趋势一年定期开放混合C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>005119</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>银华智荟内在价值灵活配置混合</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>9</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>81.23</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>9</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -3086,25 +4016,35 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>168601</t>
+          <t>006270</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>汇安裕阳三年定期开放混合</t>
+          <t>汇安核心成长混合A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>97.21</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>005939</t>
+          <t>001865</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>工银瑞信新能源汽车主题混合A</t>
+          <t>前海开源事件驱动混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>5</v>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -3142,26 +4092,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>005940</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>5</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>007689</t>
+          <t>006271</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国投瑞银新能源混合A</t>
+          <t>汇安核心成长混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>7</v>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3198,25 +4168,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>007690</t>
+          <t>009692</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国投瑞银新能源混合C</t>
+          <t>国泰浩益18个月封闭运作混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3226,26 +4206,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>009566</t>
+          <t>007501</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>汇安泓阳三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>6</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002466-天齐锂业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002466-天齐锂业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4214,7 +4215,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>79.63</t>
@@ -4230,6 +4230,4844 @@
       </c>
       <c r="H61" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>115.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0335</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8462</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6142</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5924</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5622</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3361</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2218</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2208</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1171</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0550</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>206008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华丰盛债券</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0442</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160612</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华丰收债券</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9228</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8685</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8469</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8377</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8370</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7340</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6872</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6218</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6203</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5609</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5509</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4654</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3846</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3626</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3510</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000054</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华双债增利债券</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>66.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002466-天齐锂业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002466-天齐锂业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23673,4 +23674,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>383</v>
+      </c>
+      <c r="D2" t="n">
+        <v>209.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>